--- a/exports/releve_07.xlsx
+++ b/exports/releve_07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Banque</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>Sens</t>
+  </si>
+  <si>
+    <t>06/01/2022</t>
+  </si>
+  <si>
+    <t>to EPOSIT BALANCE 33,902.23 740.00 34,642.23 34,294.38 34,218.93 7,245.00 41,463.93 41,123.97 3,255.00 44,378.97 44,290.09 935.00 45,225.09 38,731.44 37,496.46 18.75 37,515.21 37,511.46 37,51 6</t>
+  </si>
+  <si>
+    <t>34,572.23</t>
   </si>
 </sst>
 </file>
@@ -378,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,6 +436,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exports/releve_07.xlsx
+++ b/exports/releve_07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Banque</t>
   </si>
@@ -25,16 +25,19 @@
     <t>Compte</t>
   </si>
   <si>
+    <t>Account Number: 0000000098765</t>
+  </si>
+  <si>
     <t>Titulaire</t>
   </si>
   <si>
-    <t>Mr. Bean Lasso</t>
+    <t>Mr. Bean Lasso Account Number: 0000000098765</t>
   </si>
   <si>
     <t>Période</t>
   </si>
   <si>
-    <t>06/01/2022 - 06/30/2022</t>
+    <t>Photography Business, LLC</t>
   </si>
   <si>
     <t>Date</t>
@@ -49,13 +52,118 @@
     <t>Sens</t>
   </si>
   <si>
-    <t>06/01/2022</t>
-  </si>
-  <si>
-    <t>to EPOSIT BALANCE 33,902.23 740.00 34,642.23 34,294.38 34,218.93 7,245.00 41,463.93 41,123.97 3,255.00 44,378.97 44,290.09 935.00 45,225.09 38,731.44 37,496.46 18.75 37,515.21 37,511.46 37,51 6</t>
-  </si>
-  <si>
-    <t>34,572.23</t>
+    <t>06/01</t>
+  </si>
+  <si>
+    <t>Rent Bill 33,902.23 Check No. 3456</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>96/03</t>
+  </si>
+  <si>
+    <t>payment from Nala Spencer 34,642.23</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>06/08</t>
+  </si>
+  <si>
+    <t>—_ Electric Bill 34,204.38</t>
+  </si>
+  <si>
+    <t>347.85</t>
+  </si>
+  <si>
+    <t>06/13</t>
+  </si>
+  <si>
+    <t>Phone Bill 34,218.93</t>
+  </si>
+  <si>
+    <t>75.45</t>
+  </si>
+  <si>
+    <t>06/15</t>
+  </si>
+  <si>
+    <t>Deposit 41,463.93 Debit Transaction</t>
+  </si>
+  <si>
+    <t>7,245.00</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>06/18</t>
+  </si>
+  <si>
+    <t>photography Tools Warehouse 41,123.97</t>
+  </si>
+  <si>
+    <t>339.96</t>
+  </si>
+  <si>
+    <t>06/24</t>
+  </si>
+  <si>
+    <t>Deposit 44,378.97</t>
+  </si>
+  <si>
+    <t>3,255.00</t>
+  </si>
+  <si>
+    <t>06/25</t>
+  </si>
+  <si>
+    <t>Internet Bill 44,290.09 Check No. 0231</t>
+  </si>
+  <si>
+    <t>88.88</t>
+  </si>
+  <si>
+    <t>06/28</t>
+  </si>
+  <si>
+    <t>payment from Kyubi Tayler 45,225.08</t>
+  </si>
+  <si>
+    <t>985.00</t>
+  </si>
+  <si>
+    <t>Payroll Run 38,731.44 Debit Transaction</t>
+  </si>
+  <si>
+    <t>6,493.65</t>
+  </si>
+  <si>
+    <t>96/30</t>
+  </si>
+  <si>
+    <t>picture Perfect Equipments 97,486.46</t>
+  </si>
+  <si>
+    <t>1,234.98</t>
+  </si>
+  <si>
+    <t>06/30</t>
+  </si>
+  <si>
+    <t>Interest Earned 37,515.21</t>
+  </si>
+  <si>
+    <t>18.75</t>
+  </si>
+  <si>
+    <t>Withholding Tax 37,511.46</t>
+  </si>
+  <si>
+    <t>3.75</t>
   </si>
 </sst>
 </file>
@@ -387,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,46 +513,187 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
